--- a/tien_do_do_an.xlsx
+++ b/tien_do_do_an.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\THINH\DO_AN\Project_HaUI_2_2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C66FCDFE-1A9D-45D3-BF63-442350E7C53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8B6F2C-FEC5-450C-AD99-840ABF478709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4A3D0AA0-6D0A-4637-82C5-D023B7792573}"/>
   </bookViews>
@@ -33,22 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Tiến độ đồ án kỳ 2 - 2022</t>
-  </si>
-  <si>
-    <t>Họ và tên</t>
-  </si>
-  <si>
-    <t>Tiến độ</t>
-  </si>
-  <si>
-    <t>còn thiếu</t>
-  </si>
-  <si>
-    <t>Tên đề tài</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="20">
   <si>
     <t>Bùi Thị Hồng</t>
   </si>
@@ -66,13 +51,55 @@
   </si>
   <si>
     <t>Cù Thanh Long</t>
+  </si>
+  <si>
+    <t>Mai Xuân Kiên</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Trà</t>
+  </si>
+  <si>
+    <t>Đặng Văn Thái</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Vinh</t>
+  </si>
+  <si>
+    <t>Trần Bội Châu</t>
+  </si>
+  <si>
+    <t>Lê Văn Đức</t>
+  </si>
+  <si>
+    <t>Nguyễn Đức Mạnh</t>
+  </si>
+  <si>
+    <t>Kiều Văn Lộc</t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>Mô hình</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Tranning</t>
+  </si>
+  <si>
+    <t>22/05/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,13 +107,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -101,9 +151,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -420,71 +474,313 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8B1847-5CA5-4250-99F4-28D3FF0634AD}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
+      <c r="B19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -492,5 +788,6 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tien_do_do_an.xlsx
+++ b/tien_do_do_an.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\THINH\DO_AN\Project_HaUI_2_2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8B6F2C-FEC5-450C-AD99-840ABF478709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44260150-7D0A-436F-834A-868AC2446738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4A3D0AA0-6D0A-4637-82C5-D023B7792573}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="30">
   <si>
     <t>Bùi Thị Hồng</t>
   </si>
@@ -93,12 +93,46 @@
   </si>
   <si>
     <t>22/05/2022</t>
+  </si>
+  <si>
+    <t>Tiền Cọc</t>
+  </si>
+  <si>
+    <t>Tiền đã trả</t>
+  </si>
+  <si>
+    <t>Tiền nhận</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>Đã thanh toán</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Huế</t>
+  </si>
+  <si>
+    <t>Tạ Thị Thu Phương</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Dịu</t>
+  </si>
+  <si>
+    <t>Nợ 700K</t>
+  </si>
+  <si>
+    <t>Chưa Thanh Toán</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$VND]\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$VND]\ #,##0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -119,7 +153,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,6 +172,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -151,15 +191,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,13 +515,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8B1847-5CA5-4250-99F4-28D3FF0634AD}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" style="1" customWidth="1"/>
@@ -488,22 +529,35 @@
     <col min="4" max="4" width="21.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="26.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -519,11 +573,17 @@
       <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="5">
+        <v>3000000</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -539,11 +599,17 @@
       <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="5">
+        <v>3000000</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -556,14 +622,20 @@
       <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="5">
+        <v>3300000</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -576,14 +648,20 @@
       <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="5">
+        <v>4500000</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -596,14 +674,26 @@
       <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="5">
+        <v>3000000</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1500000</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1500000</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -616,14 +706,20 @@
       <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="5">
+        <v>3200000</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -639,31 +735,52 @@
       <c r="E10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="F10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="5">
+        <v>3000000</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1500000</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1500000</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="5">
+        <v>3200000</v>
+      </c>
+      <c r="I12" s="5">
+        <v>3200000</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -676,14 +793,20 @@
       <c r="D14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="5">
+        <v>3300000</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
@@ -696,14 +819,26 @@
       <c r="D16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="5">
+        <v>3500000</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1500000</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
@@ -716,14 +851,20 @@
       <c r="D17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="5">
+        <v>3000000</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>1</v>
       </c>
@@ -736,14 +877,26 @@
       <c r="D19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="5">
+        <v>3000000</v>
+      </c>
+      <c r="H19" s="5">
+        <v>500000</v>
+      </c>
+      <c r="I19" s="5">
+        <v>2500000</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
@@ -756,14 +909,23 @@
       <c r="D21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="5">
+        <v>2500000</v>
+      </c>
+      <c r="I21" s="5">
+        <v>2500000</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
@@ -776,17 +938,241 @@
       <c r="D23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>18</v>
+      <c r="E23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="5">
+        <v>3000000</v>
+      </c>
+      <c r="H23" s="5">
+        <v>500000</v>
+      </c>
+      <c r="I23" s="5">
+        <v>2500000</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="5">
+        <v>3000000</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="5">
+        <v>2500000</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" s="5">
+        <v>3000000</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G31" s="7"/>
+      <c r="H31" s="7">
+        <f>SUM(H4:H23)</f>
+        <v>5500000</v>
+      </c>
+      <c r="I31" s="7">
+        <f>SUM(I4:I26)</f>
+        <v>17700000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="5">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="5">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="5">
+        <v>3300000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="5">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="5">
+        <v>3200000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="5">
+        <v>3300000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="5">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G46" s="5">
+        <f>SUM(G39:G45)</f>
+        <v>22800000</v>
+      </c>
+      <c r="H46" s="5">
+        <f>G46-16000000</f>
+        <v>6800000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
